--- a/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
+++ b/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -61,15 +61,12 @@
     <t xml:space="preserve">PTH</t>
   </si>
   <si>
-    <t xml:space="preserve">B3, B4</t>
+    <t xml:space="preserve">B4, B6, B7</t>
   </si>
   <si>
     <t xml:space="preserve">210S-1*2P L=11.6MM</t>
   </si>
   <si>
-    <t xml:space="preserve">Pins for Jumpers</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/3460440P1.pdf</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
     <t xml:space="preserve">2P-2.54</t>
   </si>
   <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210S-1*3P L=11.6MM</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
@@ -91,6 +94,15 @@
     <t xml:space="preserve">Headers</t>
   </si>
   <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220S-1*2P H=8.5MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header Socket</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEDbar</t>
   </si>
   <si>
@@ -116,6 +128,24 @@
   </si>
   <si>
     <t xml:space="preserve">0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKRHABE010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tech.alpsalpine.com/prod/e/html/multicontrol/switch/skrh/skrhabe010.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 way nav button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD</t>
   </si>
 </sst>
 </file>
@@ -125,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -163,6 +193,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +247,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,6 +269,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,12 +357,12 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.39"/>
@@ -386,13 +428,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -410,37 +452,37 @@
         <v>320190003</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -452,19 +494,23 @@
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
@@ -472,56 +518,94 @@
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,6 +629,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
@@ -554,6 +639,8 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
@@ -562,6 +649,8 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -569,6 +658,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -590,14 +680,14 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -611,12 +701,14 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -646,8 +738,18 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -675,7 +777,10 @@
     <hyperlink ref="D3" r:id="rId2" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D4" r:id="rId3" display="https://statics3.seeedstudio.com/images/opl/datasheet/3460440P1.pdf"/>
     <hyperlink ref="D5" r:id="rId4" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://tech.alpsalpine.com/prod/e/html/multicontrol/switch/skrh/skrhabe010.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
+++ b/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -146,6 +146,66 @@
   </si>
   <si>
     <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-213/GHC-YR1S2/3T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-217-R6C-AL1M2VY-3T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C3, C4, C7, C8, C10, C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R9BB104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100020P1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R8BB105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9, C12, C13, C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603JRNPO9BN200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20pF</t>
   </si>
 </sst>
 </file>
@@ -357,10 +417,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30"/>
@@ -609,56 +669,126 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -680,14 +810,14 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -701,14 +831,12 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -738,18 +866,8 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -781,6 +899,10 @@
     <hyperlink ref="D7" r:id="rId6" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D9" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
     <hyperlink ref="D10" r:id="rId8" display="https://tech.alpsalpine.com/prod/e/html/multicontrol/switch/skrh/skrhabe010.html"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
+++ b/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -148,6 +148,57 @@
     <t xml:space="preserve">SMD</t>
   </si>
   <si>
+    <t xml:space="preserve">C1, C3, C4, C7, C8, C10, C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R9BB104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100020P1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R8BB105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9, C12, C13, C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603JRNPO9BN200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS110A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANGJIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMA D0-214AC</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC13</t>
   </si>
   <si>
@@ -170,42 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C3, C4, C7, C8, C10, C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R9BB104 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100020P1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R8BB105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9, C12, C13, C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603JRNPO9BN200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20pF</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30"/>
@@ -676,16 +691,16 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>35</v>
@@ -709,7 +724,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>35</v>
@@ -724,7 +739,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>52</v>
@@ -751,37 +766,37 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>35</v>
@@ -789,21 +804,38 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -817,14 +849,12 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -854,18 +884,8 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -899,10 +919,11 @@
     <hyperlink ref="D7" r:id="rId6" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D9" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
     <hyperlink ref="D10" r:id="rId8" display="https://tech.alpsalpine.com/prod/e/html/multicontrol/switch/skrh/skrhabe010.html"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
+++ b/2020projects/00.LEDbar/00.LEDbarBOM0NCKristianMedri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Package</t>
   </si>
   <si>
-    <t xml:space="preserve">B2</t>
+    <t xml:space="preserve">J2</t>
   </si>
   <si>
     <t xml:space="preserve">210S-1*6P L=11.6MM</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">PTH</t>
   </si>
   <si>
-    <t xml:space="preserve">B4, B6, B7</t>
+    <t xml:space="preserve">J4, J6, J7</t>
   </si>
   <si>
     <t xml:space="preserve">210S-1*2P L=11.6MM</t>
@@ -79,13 +79,13 @@
     <t xml:space="preserve">2P-2.54</t>
   </si>
   <si>
-    <t xml:space="preserve">B5</t>
+    <t xml:space="preserve">J5</t>
   </si>
   <si>
     <t xml:space="preserve">210S-1*3P L=11.6MM</t>
   </si>
   <si>
-    <t xml:space="preserve">J1</t>
+    <t xml:space="preserve">J0, J1</t>
   </si>
   <si>
     <t xml:space="preserve">220S-1*20P H=8.5MM</t>
@@ -146,81 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C3, C4, C7, C8, C10, C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R9BB104 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100020P1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R8BB105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9, C12, C13, C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603JRNPO9BN200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS110A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schottky Diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANGJIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMA D0-214AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-213/GHC-YR1S2/3T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-217-R6C-AL1M2VY-3T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
   </si>
 </sst>
 </file>
@@ -435,7 +360,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30"/>
@@ -684,147 +609,63 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,11 +760,6 @@
     <hyperlink ref="D7" r:id="rId6" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D9" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
     <hyperlink ref="D10" r:id="rId8" display="https://tech.alpsalpine.com/prod/e/html/multicontrol/switch/skrh/skrhabe010.html"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://file.elecfans.com/web1/M00/9C/FD/pIYBAF0sL4aAK3oGABPwAIyfLjk442.pdf"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
